--- a/pred_ohlcv/54_21/2020-01-26 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 FCT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>8442085.680387815</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8442067.680387815</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8442049.680387815</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8442772.480387816</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10633675.94828781</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10662785.80128781</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10663554.10128781</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>10657278.63898781</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>10658017.03898781</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10626375.0336234</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10627068.9961234</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10628562.2595234</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>10721917.38103462</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>10691048.62103462</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>10695048.88583462</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>10699315.56523462</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>10704424.37713462</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>10666999.85643462</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9805145.673234621</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9805673.945434621</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9806417.54543462</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>9593025.465934621</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>9589447.418734621</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>9356108.573734622</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>9218404.923034623</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>9191217.075734623</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>9192094.575734623</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>9192094.575734623</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>9121977.969634624</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>9122860.669634623</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>8835608.018034624</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>8761513.570834624</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8817355.760234624</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>8825274.649834624</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>8821643.034834623</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>8821486.992434625</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>8822117.492434625</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>8818276.234834624</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>8843880.765090328</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>8803852.225290326</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>8786915.461790327</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>8802952.695128307</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>8786521.725728307</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>8721658.798528308</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>8721557.699528309</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>8726622.621628309</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>8728546.226728309</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>8728744.73722831</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 FCT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>8442085.680387815</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8442067.680387815</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8442049.680387815</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8442772.480387816</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10633675.94828781</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10662785.80128781</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10663554.10128781</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>10657278.63898781</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>10658017.03898781</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>10692282.34451891</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10626375.0336234</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10627068.9961234</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>10621772.3043234</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10628562.2595234</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>10657233.37292228</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>10653633.37292228</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>10666724.23562228</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10683273.69319463</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>10683273.69319463</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>10737390.44589037</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>10737271.21253462</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>10721917.38103462</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>10691048.62103462</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>10710302.71733462</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>10695091.13943462</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>10689589.62683462</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>10699315.56523462</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10726490.05933462</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>10704424.37713462</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>10666999.85643462</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>10666981.85643462</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9805145.673234621</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9805673.945434621</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9806417.54543462</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>9593025.465934621</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>9593810.66593462</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>9589447.418734621</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>9356108.573734622</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>9218906.373534624</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>8792443.779334623</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>8834752.618034624</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>8835608.018034624</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>8812480.519834625</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>8774603.700434623</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>8753264.579034623</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>8753222.579034623</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>8761513.570834624</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8817355.760234624</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8825214.753934624</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>8825274.649834624</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>8825274.649834624</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>8821643.034834623</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>8822339.834834624</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>8821641.734834624</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>8821623.734834624</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>8821486.992434625</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>8822117.492434625</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>8818276.234834624</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>8835670.152807565</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>8853639.362390326</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>8850061.330490327</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>8843255.465090327</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>8843880.765090328</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>8841264.340190327</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>8820146.788790327</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>8820788.988790326</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>8803852.225290326</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>8786915.461790327</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>8802952.695128307</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>8785904.225728307</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>8786521.725728307</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>8720985.398528308</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>8721658.798528308</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>8721557.699528309</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>8726622.621628309</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>8746400.621628309</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>8728546.226728309</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>8728744.73722831</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>8791680.476828311</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
